--- a/Competetitor.xlsx
+++ b/Competetitor.xlsx
@@ -191,11 +191,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -501,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -513,11 +513,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -625,11 +625,11 @@
     </row>
     <row r="14" spans="1:3" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -650,7 +650,7 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -670,7 +670,7 @@
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -679,7 +679,7 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -688,13 +688,13 @@
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -703,7 +703,7 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -712,7 +712,7 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -721,7 +721,7 @@
       <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -730,16 +730,16 @@
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:3" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
